--- a/ch-3.xlsx
+++ b/ch-3.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06718AF-A230-402C-BD3F-4922749BB8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAE30DD-7515-4639-8FA8-1F71A8D204AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="3" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -29418,10 +29417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -29558,10 +29554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M547"/>
   <sheetViews>
-    <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -52012,10 +52005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63B7AA-1BF0-4D31-81B2-D0BE78092B00}">
   <dimension ref="A3:H550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="A23:J30"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -57304,10 +57294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF4C83-5C47-4638-A281-2EAC1CE182FC}">
   <dimension ref="A1:J550"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="A21:E22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:G21"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -62420,10 +62409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEA18FE-29B0-4C54-86A3-BBEC014EAC06}">
   <dimension ref="A3:H550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -67684,10 +67670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344566A8-ED4A-4E88-B02C-8BFBD9C82FAE}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -72955,10 +72938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF0C038-63EE-4302-B7B7-1FE31FA368F8}">
   <dimension ref="A1:J550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -78247,10 +78227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD40F4-F25D-4A93-AFB1-453B057C1C98}">
   <dimension ref="A1:I524"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-    <sheetView topLeftCell="F1" workbookViewId="1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/ch-3.xlsx
+++ b/ch-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAE30DD-7515-4639-8FA8-1F71A8D204AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF8A11-16BD-4777-BB70-24B86635098D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="3" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -14537,7 +14537,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54B0A03C-1993-4915-AEE7-9026E4AB94ED}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54B0A03C-1993-4915-AEE7-9026E4AB94ED}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C550" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -16780,7 +16780,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9662F113-AB54-46D8-AF86-90AC813CE5E2}" name="PivotTable11" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9662F113-AB54-46D8-AF86-90AC813CE5E2}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -17455,7 +17455,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21BE4E55-47D9-44CA-830C-21FC029ED9D0}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21BE4E55-47D9-44CA-830C-21FC029ED9D0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E22:G40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -17610,7 +17610,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BA9F502-80B1-497F-B41C-5E103BB7B89D}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BA9F502-80B1-497F-B41C-5E103BB7B89D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C550" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -19853,7 +19853,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B2D759-A1AF-41A1-BBBD-6201F455BBCD}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B2D759-A1AF-41A1-BBBD-6201F455BBCD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C550" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -22096,7 +22096,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ACE9FB1-4830-4BD5-B8BD-0DBE15CFA580}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ACE9FB1-4830-4BD5-B8BD-0DBE15CFA580}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E22:G37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -22249,7 +22249,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AAE12A1-4EAB-4EAA-B9ED-5B25C925CC84}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AAE12A1-4EAB-4EAA-B9ED-5B25C925CC84}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C550" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -24492,7 +24492,186 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{642A23D9-8D4B-4C56-896D-FCAF4DDF5FC4}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB599E4E-8ACC-4ACB-9853-3796110EB614}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="E22:G40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{642A23D9-8D4B-4C56-896D-FCAF4DDF5FC4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C550" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -26740,187 +26919,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB599E4E-8ACC-4ACB-9853-3796110EB614}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="E22:G40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{001AA1FF-9978-4387-8121-970FBE449FB6}" name="PivotTable13" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{001AA1FF-9978-4387-8121-970FBE449FB6}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E524" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -29417,7 +29417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -57294,8 +57294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF4C83-5C47-4638-A281-2EAC1CE182FC}">
   <dimension ref="A1:J550"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/ch-3.xlsx
+++ b/ch-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF8A11-16BD-4777-BB70-24B86635098D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4FE74B-0E4B-4F89-A574-E45A8BB0CE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="3" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
+    <workbookView xWindow="-25653" yWindow="-53" windowWidth="25706" windowHeight="14506" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -367,13 +367,13 @@
     <t xml:space="preserve">standard error </t>
   </si>
   <si>
-    <t>t-Test: Two-Sample Assuming Unequal Variances SENSITIVITY ANALYSIS</t>
-  </si>
-  <si>
     <t>gashw-no</t>
   </si>
   <si>
     <t>gashw-yes</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances WHAT-IF ANALYSIS</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -914,7 +914,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -24492,185 +24491,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB599E4E-8ACC-4ACB-9853-3796110EB614}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="E22:G40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{642A23D9-8D4B-4C56-896D-FCAF4DDF5FC4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C550" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
@@ -26907,6 +26727,185 @@
   <dataFields count="1">
     <dataField name="Sum of lotsize" fld="2" baseField="0" baseItem="3"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB599E4E-8ACC-4ACB-9853-3796110EB614}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="E22:G40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -29417,7 +29416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -57294,7 +57293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF4C83-5C47-4638-A281-2EAC1CE182FC}">
   <dimension ref="A1:J550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -67670,19 +67669,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344566A8-ED4A-4E88-B02C-8BFBD9C82FAE}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="14.68359375" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="5.68359375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="6.15625" customWidth="1"/>
-    <col min="5" max="5" width="39.15625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.26171875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.68359375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9.15625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.15625"/>
+    <col min="1" max="1" width="12.05078125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="5.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="4.1015625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.15625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.26171875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9.15625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="4.83984375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="45.15625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
@@ -67694,7 +67695,7 @@
         <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -67777,10 +67778,10 @@
       <c r="J6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="5">
         <v>4683966.2704225369</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="5">
         <v>4726820.2302562715</v>
       </c>
     </row>
@@ -67805,10 +67806,10 @@
         <v>37</v>
       </c>
       <c r="K7" s="12">
-        <v>355</v>
+        <v>550</v>
       </c>
       <c r="L7" s="12">
-        <v>191</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -67968,7 +67969,7 @@
         <v>44</v>
       </c>
       <c r="K14" s="11">
-        <v>1.9661127742070104</v>
+        <v>1.64</v>
       </c>
       <c r="L14" s="6"/>
     </row>
@@ -68036,7 +68037,7 @@
       </c>
       <c r="K17">
         <f>K14</f>
-        <v>1.9661127742070104</v>
+        <v>1.64</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -68067,7 +68068,7 @@
       </c>
       <c r="K18">
         <f>SQRT((K6/K7)+(L6/L7))</f>
-        <v>194.78711733818162</v>
+        <v>130.80718982657302</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -68098,7 +68099,7 @@
       </c>
       <c r="K19" s="10">
         <f>K17*K18</f>
-        <v>382.97343964955871</v>
+        <v>214.52379131557976</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -68129,7 +68130,7 @@
       </c>
       <c r="K20" s="10">
         <f>K16-K19</f>
-        <v>-167.28490635555318</v>
+        <v>1.1647419784257806</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -68160,7 +68161,7 @@
       </c>
       <c r="K21" s="10">
         <f>K16+K19</f>
-        <v>598.66197294356425</v>
+        <v>430.21232460958527</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -72953,11 +72954,11 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H1" s="7"/>
     </row>
